--- a/project/data/data.xlsx
+++ b/project/data/data.xlsx
@@ -5,15 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code Projects\datanalysis_2022\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code Projects\GitHubRepos\datanalysis_2022\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248C83D-B855-40AC-B135-FF151A2C81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D70B26-83BB-426B-8225-061F41C32BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39090" yWindow="3255" windowWidth="27735" windowHeight="15540" tabRatio="830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="primary-education" sheetId="1" r:id="rId1"/>
+    <sheet name="lower-secondary-education" sheetId="2" r:id="rId2"/>
+    <sheet name="upper-secondary-education" sheetId="3" r:id="rId3"/>
+    <sheet name="bachelor-education" sheetId="4" r:id="rId4"/>
+    <sheet name="master's-education" sheetId="5" r:id="rId5"/>
+    <sheet name="risk-of-poverty-prec" sheetId="6" r:id="rId6"/>
+    <sheet name="unemployment-rate" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="36">
   <si>
     <t>Belgium</t>
   </si>
@@ -111,13 +117,38 @@
     <t>Country</t>
   </si>
   <si>
-    <t>No. of primary education graduates</t>
+    <t>No. of primary education enrollments</t>
+  </si>
+  <si>
+    <t>No. of lower secundary education enrollments</t>
+  </si>
+  <si>
+    <t>No. upper secondary education enrollements</t>
+  </si>
+  <si>
+    <t>No. of Bachelor education enrollments</t>
+  </si>
+  <si>
+    <t>No. of Master's education enrollments</t>
+  </si>
+  <si>
+    <t>Precentage of persons at risk of poverty or social exclusion</t>
+  </si>
+  <si>
+    <t>Unemployment rate (precentage of total labor force)</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -198,6 +229,69 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -481,236 +575,1691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>823725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>248354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>571922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>452253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3014502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>89702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>570381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>625523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3006992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4279257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>156627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2762544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>59195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>120051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>118616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>358766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>27035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1161942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>343981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1333675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>601972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>904077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>134199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>232979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>373173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>892231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E7C5B5-7C3C-4124-9531-9B3037EF9104}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>440421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>198514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>439486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>243090</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4478174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>215239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>332800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1702246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3446350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>176472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1777516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>28267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>58130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>164579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>23263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>393848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>13307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>771962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>341516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1744202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>348892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <v>718564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>58811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>262951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>186665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>398179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFC0DBE-E7F7-40EF-9D64-DC841A889E9F}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>734308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>274024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>394406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>286916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2398670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>227586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>344001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1770354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2710922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>148181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2858684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>27655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>59313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>59681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>26596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>407753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>839691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>351565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1614772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>393340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>719050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>89014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <v>179587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>327235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>549404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F471DEC-E057-400E-8080-3F4F389CE698}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>371661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>147944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>190673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>194534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2002583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>27471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>167763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>687121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1224186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1116575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>93233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1227227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>24046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>77130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>184868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>695419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>196271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>917005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>216142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <v>349414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
+        <v>78538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
+        <v>204676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
+        <v>256655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2065837-3B62-49FA-9C0F-1C679D3DB542}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>110164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>72224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>105834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>68770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1084652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>15099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>84077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>365556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1018720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>64498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15">
+        <v>752079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>22083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15">
+        <v>18632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14">
+        <v>26591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <v>79631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>195384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
+        <v>134423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>439159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>125087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14">
+        <v>171909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15">
+        <v>20827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14">
+        <v>50913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15">
+        <v>72794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14">
+        <v>143164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679814B-6A51-4FC5-9F6D-DFFCF42F35B7}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>823725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="18">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>248354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="17">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>571922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="18">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>452253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3014502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B5" s="17">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="18">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>89702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="17">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>570381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="18">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>625523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="17">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>3006992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>4279257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="17">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>156627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="18">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>2762544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="17">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>59195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="18">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>120051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="17">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>118616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="18">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>40098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="17">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>358766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="18">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>27035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="17">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>1161942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>343981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="17">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>1333675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>601972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>904077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="18">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>134199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="17">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>232979</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="18">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>373173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="17">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>892231</v>
+      <c r="B28" s="18">
+        <v>17.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C869AB29-A375-473C-A686-A7FB5C06F868}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
